--- a/Gen8/data/database.xlsx
+++ b/Gen8/data/database.xlsx
@@ -1,180 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\rentals\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{931E9DAF-383C-4C96-8A55-CBC4C7AA8908}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-6405" yWindow="3900" windowWidth="13305" windowHeight="11700" xr2:uid="{EE560EE7-4EB7-4083-9A25-0F43CE716272}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
-  <si>
-    <t>Charmander</t>
-  </si>
-  <si>
-    <t>Fire</t>
-  </si>
-  <si>
-    <t>LC</t>
-  </si>
-  <si>
-    <t>NONE</t>
-  </si>
-  <si>
-    <t>SUN</t>
-  </si>
-  <si>
-    <t>Choice Scarf</t>
-  </si>
-  <si>
-    <t>Solar Power</t>
-  </si>
-  <si>
-    <t>44 HP / 12 Def / 200 SpA / 236 Spe</t>
-  </si>
-  <si>
-    <t>Modest</t>
-  </si>
-  <si>
-    <t>0 Atk</t>
-  </si>
-  <si>
-    <t>Fire Blast</t>
-  </si>
-  <si>
-    <t>Hidden Power [Grass]</t>
-  </si>
-  <si>
-    <t>Dragon Pulse</t>
-  </si>
-  <si>
-    <t>Ancient Power</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>nat_dex</t>
-  </si>
-  <si>
-    <t>type1</t>
-  </si>
-  <si>
-    <t>type2</t>
-  </si>
-  <si>
-    <t>usage_tier</t>
-  </si>
-  <si>
-    <t>rarity</t>
-  </si>
-  <si>
-    <t>tags</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>ability</t>
-  </si>
-  <si>
-    <t>ev_spread</t>
-  </si>
-  <si>
-    <t>nature</t>
-  </si>
-  <si>
-    <t>iv_spread</t>
-  </si>
-  <si>
-    <t>move1</t>
-  </si>
-  <si>
-    <t>move2</t>
-  </si>
-  <si>
-    <t>move3</t>
-  </si>
-  <si>
-    <t>move4</t>
-  </si>
-  <si>
-    <t>Kingler</t>
-  </si>
-  <si>
-    <t>Water</t>
-  </si>
-  <si>
-    <t>NU</t>
-  </si>
-  <si>
-    <t>COMMON</t>
-  </si>
-  <si>
-    <t>Waterium Z</t>
-  </si>
-  <si>
-    <t>Hyper Cutter</t>
-  </si>
-  <si>
-    <t>252 Atk / 4 SpD / 252 Spe</t>
-  </si>
-  <si>
-    <t>Adamant</t>
-  </si>
-  <si>
-    <t>Agility</t>
-  </si>
-  <si>
-    <t>Crabhammer</t>
-  </si>
-  <si>
-    <t>Knock Off</t>
-  </si>
-  <si>
-    <t>Stomping Tantrum</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -193,21 +46,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -507,154 +351,233 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E7C3EC1-D5FE-40E0-9267-705799FAA0A3}">
-  <dimension ref="A1:P3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="10" max="10" width="34.5703125" customWidth="1"/>
+    <col width="34.5703125" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P1" t="s">
-        <v>29</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>level</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>item</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>ability</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>ev_spread</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>nature</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>iv_spread</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>move1</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>move2</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>move3</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>move4</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" t="s">
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Charmander</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>5</v>
       </c>
-      <c r="I2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O2" t="s">
-        <v>12</v>
-      </c>
-      <c r="P2" t="s">
-        <v>13</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Choice Scarf</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Solar Power</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>44 HP / 12 Def / 200 SpA / 236 Spe</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Modest</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0 Atk</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Fire Blast</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Scratch</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Dragon Pulse</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Ancient Power</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3">
-        <v>99</v>
-      </c>
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M3" t="s">
-        <v>38</v>
-      </c>
-      <c r="N3" t="s">
-        <v>39</v>
-      </c>
-      <c r="O3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P3" t="s">
-        <v>41</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Kingler</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Waterium Z</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Hyper Cutter</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>252 Atk / 4 SpD / 252 Spe</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Adamant</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Agility</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Crabhammer</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Knock Off</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Stomping Tantrum</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Abomasnow</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Absorb Bulb</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Snow Warning</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>252 HP / 252 Atk / 4 SpD</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Brave</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Attract</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Aurora Veil</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Avalanche</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Avalanche</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Gen8/data/database.xlsx
+++ b/Gen8/data/database.xlsx
@@ -1,33 +1,202 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\rentals\Gen8\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41319DEE-20E0-4CCD-8F9F-166CD86D5949}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>ability</t>
+  </si>
+  <si>
+    <t>ev_spread</t>
+  </si>
+  <si>
+    <t>nature</t>
+  </si>
+  <si>
+    <t>iv_spread</t>
+  </si>
+  <si>
+    <t>move1</t>
+  </si>
+  <si>
+    <t>move2</t>
+  </si>
+  <si>
+    <t>move3</t>
+  </si>
+  <si>
+    <t>move4</t>
+  </si>
+  <si>
+    <t>Charmander</t>
+  </si>
+  <si>
+    <t>Choice Scarf</t>
+  </si>
+  <si>
+    <t>Solar Power</t>
+  </si>
+  <si>
+    <t>44 HP / 12 Def / 200 SpA / 236 Spe</t>
+  </si>
+  <si>
+    <t>Modest</t>
+  </si>
+  <si>
+    <t>0 Atk</t>
+  </si>
+  <si>
+    <t>Fire Blast</t>
+  </si>
+  <si>
+    <t>Scratch</t>
+  </si>
+  <si>
+    <t>Dragon Pulse</t>
+  </si>
+  <si>
+    <t>Ancient Power</t>
+  </si>
+  <si>
+    <t>Kingler</t>
+  </si>
+  <si>
+    <t>Waterium Z</t>
+  </si>
+  <si>
+    <t>Hyper Cutter</t>
+  </si>
+  <si>
+    <t>252 Atk / 4 SpD / 252 Spe</t>
+  </si>
+  <si>
+    <t>Adamant</t>
+  </si>
+  <si>
+    <t>Agility</t>
+  </si>
+  <si>
+    <t>Crabhammer</t>
+  </si>
+  <si>
+    <t>Knock Off</t>
+  </si>
+  <si>
+    <t>Stomping Tantrum</t>
+  </si>
+  <si>
+    <t>Abomasnow</t>
+  </si>
+  <si>
+    <t>Absorb Bulb</t>
+  </si>
+  <si>
+    <t>Snow Warning</t>
+  </si>
+  <si>
+    <t>252 HP / 252 Atk / 4 SpD</t>
+  </si>
+  <si>
+    <t>Brave</t>
+  </si>
+  <si>
+    <t>Attract</t>
+  </si>
+  <si>
+    <t>Aurora Veil</t>
+  </si>
+  <si>
+    <t>Avalanche</t>
+  </si>
+  <si>
+    <t>Aegislash</t>
+  </si>
+  <si>
+    <t>Stance Change</t>
+  </si>
+  <si>
+    <t>252 HP / 4 Atk / 252 SpA</t>
+  </si>
+  <si>
+    <t>Quiet</t>
+  </si>
+  <si>
+    <t>0 Spe</t>
+  </si>
+  <si>
+    <t>Appletun</t>
+  </si>
+  <si>
+    <t>Thick Fat</t>
+  </si>
+  <si>
+    <t>252 HP / 4 Def / 252 SpA</t>
+  </si>
+  <si>
+    <t>Accelgor</t>
+  </si>
+  <si>
+    <t>Unburden</t>
+  </si>
+  <si>
+    <t>252 SpA / 4 SpD / 252 Spe</t>
+  </si>
+  <si>
+    <t>Serious</t>
+  </si>
+  <si>
+    <t>Arcanine</t>
+  </si>
+  <si>
+    <t>Intimidate</t>
+  </si>
+  <si>
+    <t>252 HP / 4 Atk / 252 Spe</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,12 +215,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -351,233 +529,245 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="34.5703125" customWidth="1" min="5" max="5"/>
+    <col min="5" max="5" width="34.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>level</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>item</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>ability</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>ev_spread</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>nature</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>iv_spread</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>move1</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>move2</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>move3</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>move4</t>
-        </is>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Charmander</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
         <v>5</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Choice Scarf</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Solar Power</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>44 HP / 12 Def / 200 SpA / 236 Spe</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Modest</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0 Atk</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Fire Blast</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Scratch</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Dragon Pulse</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Ancient Power</t>
-        </is>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Kingler</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3">
         <v>100</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Waterium Z</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Hyper Cutter</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>252 Atk / 4 SpD / 252 Spe</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Adamant</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Agility</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Crabhammer</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Knock Off</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Stomping Tantrum</t>
-        </is>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Abomasnow</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4">
         <v>100</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Absorb Bulb</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Snow Warning</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>252 HP / 252 Atk / 4 SpD</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Brave</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Attract</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Aurora Veil</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Avalanche</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Avalanche</t>
-        </is>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7">
+        <v>100</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Gen8/data/database.xlsx
+++ b/Gen8/data/database.xlsx
@@ -356,7 +356,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
@@ -771,6 +771,59 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Accelgor</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Adamant Orb</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Sticky Hold</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>199 HP / 96 Atk / 136 Def / 79 SpA</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Serious</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Acid Spray</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Giga Drain</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Guard Split</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Feint</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
